--- a/uploads/Resultado_Cotejar_Nuevos_Beneficiarios_Data_Historica_1654909120.xlsx
+++ b/uploads/Resultado_Cotejar_Nuevos_Beneficiarios_Data_Historica_1654909120.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="53">
   <si>
     <t>ID_BUSQUEDA</t>
   </si>
@@ -178,33 +178,6 @@
   </si>
   <si>
     <t>BARDAN</t>
-  </si>
-  <si>
-    <t>demo 5125</t>
-  </si>
-  <si>
-    <t>demo 5126</t>
-  </si>
-  <si>
-    <t>demo 5127</t>
-  </si>
-  <si>
-    <t>demo 5128</t>
-  </si>
-  <si>
-    <t>demo 5129</t>
-  </si>
-  <si>
-    <t>demo 5130</t>
-  </si>
-  <si>
-    <t>demo 5131</t>
-  </si>
-  <si>
-    <t>demo 5132</t>
-  </si>
-  <si>
-    <t>xxxx</t>
   </si>
 </sst>
 </file>
@@ -554,7 +527,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="O2" sqref="O2:O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,8 +636,9 @@
       <c r="N2">
         <v>5125</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>53</v>
+      <c r="O2" s="1" t="str">
+        <f>N2&amp;" prueba"</f>
+        <v>5125 prueba</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -707,8 +681,9 @@
       <c r="N3">
         <v>5126</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>54</v>
+      <c r="O3" s="1" t="str">
+        <f t="shared" ref="O3:O11" si="0">N3&amp;" prueba"</f>
+        <v>5126 prueba</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -751,8 +726,9 @@
       <c r="N4">
         <v>5127</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>55</v>
+      <c r="O4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>5127 prueba</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -795,8 +771,9 @@
       <c r="N5">
         <v>5127</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>55</v>
+      <c r="O5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>5127 prueba</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -839,8 +816,9 @@
       <c r="N6">
         <v>5128</v>
       </c>
-      <c r="O6" s="1" t="s">
-        <v>56</v>
+      <c r="O6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>5128 prueba</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -883,8 +861,9 @@
       <c r="N7">
         <v>5129</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>57</v>
+      <c r="O7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>5129 prueba</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -927,8 +906,9 @@
       <c r="N8">
         <v>5130</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>58</v>
+      <c r="O8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>5130 prueba</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -971,8 +951,9 @@
       <c r="N9">
         <v>5131</v>
       </c>
-      <c r="O9" s="1" t="s">
-        <v>59</v>
+      <c r="O9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>5131 prueba</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1015,8 +996,9 @@
       <c r="N10">
         <v>5132</v>
       </c>
-      <c r="O10" s="1" t="s">
-        <v>60</v>
+      <c r="O10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>5132 prueba</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1059,8 +1041,9 @@
       <c r="N11">
         <v>5133</v>
       </c>
-      <c r="O11" s="1" t="s">
-        <v>61</v>
+      <c r="O11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>5133 prueba</v>
       </c>
     </row>
   </sheetData>
